--- a/13. Dynamic_Dashboard/Excel+Dashboard+2 (4).xlsx
+++ b/13. Dynamic_Dashboard/Excel+Dashboard+2 (4).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Advance_Excel_BI\Dynamic_Dashboard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Advance_Excel_BI\13. Dynamic_Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F47FD973-BE50-432E-BDED-B66F2F85C41D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA53314E-4864-4B00-80DC-25BE699C06C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16290,7 +16290,7 @@
   <dimension ref="A1:K121"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
